--- a/main/.data/byPair/momentum/[2021][HuyNguyen]-TradingView.xlsx
+++ b/main/.data/byPair/momentum/[2021][HuyNguyen]-TradingView.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GPBUSD" sheetId="1" r:id="rId1"/>
-    <sheet name="USDBTC" sheetId="2" r:id="rId2"/>
+    <sheet name="GBPUSD" sheetId="1" r:id="rId1"/>
+    <sheet name="PAIR2" sheetId="2" r:id="rId2"/>
+    <sheet name="VNDUSD" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="34">
   <si>
     <t>MONTH</t>
   </si>
@@ -29,12 +30,12 @@
     <t>POSITION</t>
   </si>
   <si>
+    <t>15MIN CHART</t>
+  </si>
+  <si>
     <t>1HR CHART</t>
   </si>
   <si>
-    <t>15MIN CHART</t>
-  </si>
-  <si>
     <t>PROFIT R</t>
   </si>
   <si>
@@ -47,45 +48,76 @@
     <t>SUM</t>
   </si>
   <si>
-    <t>13:30</t>
+    <t>14:30</t>
   </si>
   <si>
     <t>Buy</t>
   </si>
   <si>
-    <t>https://www.w3schools.com/jsref/prop_text_value.asp</t>
-  </si>
-  <si>
-    <t>https://api.jquery.com/jquery.post/</t>
-  </si>
-  <si>
-    <t>commnet</t>
-  </si>
-  <si>
-    <t>21:14:06.541067</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>LINK 1 HOUR</t>
-  </si>
-  <si>
-    <t>LINK 15-MIN</t>
-  </si>
-  <si>
-    <t>''= new ' ' 
-"""" """"
-4.5</t>
-  </si>
-  <si>
-    <t>21:36:29.571526</t>
-  </si>
-  <si>
-    <t>my comment</t>
+    <t>1 day link</t>
+  </si>
+  <si>
+    <t>1 hour link</t>
+  </si>
+  <si>
+    <t>comments of mine</t>
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>14:57:56.200590</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>link 1</t>
+  </si>
+  <si>
+    <t>link 2</t>
+  </si>
+  <si>
+    <t>this is my comment</t>
+  </si>
+  <si>
+    <t>14:58:01.136710</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>14:49:52.513970</t>
+  </si>
+  <si>
+    <t>14:50:52.149015</t>
+  </si>
+  <si>
+    <t>14:51:26.581864</t>
+  </si>
+  <si>
+    <t>14:52:03.892577</t>
+  </si>
+  <si>
+    <t>14:56:57.405001</t>
+  </si>
+  <si>
+    <t>14:57:03.901108</t>
+  </si>
+  <si>
+    <t>14:57:30.000793</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -435,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,11 +510,11 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>5</v>
+      <c r="A2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -497,30 +529,143 @@
         <v>13</v>
       </c>
       <c r="G2" s="1">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM(G2:G6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1">
-        <v>2.31</v>
-      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1">
+        <v>241</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1">
+        <v>991</v>
+      </c>
+      <c r="J6" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-  </hyperlinks>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="J2:J6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -567,28 +712,28 @@
         <v>22</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="J2" s="1">
         <f>SUM(G2:G3)</f>
@@ -598,62 +743,30 @@
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1">
-        <v>5</v>
+        <v>800</v>
       </c>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -662,4 +775,1042 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="6" width="35.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM(G2:G27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1">
+        <v>51</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1">
+        <v>53</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1">
+        <v>65</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1">
+        <v>71</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1">
+        <v>78</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1">
+        <v>86</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1">
+        <v>95</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1">
+        <v>105</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="1">
+        <v>116</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1">
+        <v>128</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="1">
+        <v>141</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1">
+        <v>155</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="1">
+        <v>170</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1">
+        <v>186</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1">
+        <v>203</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1">
+        <v>221</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1">
+        <v>240</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="1">
+        <v>100</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1">
+        <v>200</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1">
+        <v>400</v>
+      </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1">
+        <v>600</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1">
+        <v>31</v>
+      </c>
+      <c r="J28" s="1">
+        <f>SUM(G28:G29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1">
+        <v>101</v>
+      </c>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="1">
+        <v>33</v>
+      </c>
+      <c r="J30" s="1">
+        <f>SUM(G30:G31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="1">
+        <v>103</v>
+      </c>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="1">
+        <v>36</v>
+      </c>
+      <c r="J32" s="1">
+        <f>SUM(G32:G33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="1">
+        <v>106</v>
+      </c>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="1">
+        <v>40</v>
+      </c>
+      <c r="J34" s="1">
+        <f>SUM(G34:G35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="1">
+        <v>110</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="J2:J27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="J34:J35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>